--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -58,267 +58,187 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>白粥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心肉片粥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜鱼片粥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆沙包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈村粉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒粉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>中餐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>海草龙骨汤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山红萝卜龙骨汤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>祛湿筒骨汤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦瓜黄豆龙骨汤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>豉汁蒸鲩鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮牛肉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯拼五花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金针云耳蒸靓鸡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸猪手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>茄瓜煮猪肉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉茸蒸水蛋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜蒸排骨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜煎鸡蛋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土豆丝炒肉丝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒肉片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>莴笋炒鱼球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆靓鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白菜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通菜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙须菜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苋菜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>番石榴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪耳糖水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>柿子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>糖水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>晚餐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>水煮鸭</t>
+    <t xml:space="preserve">若有变动，以当天为准 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>酸菜炒猪什</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮蛋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>西芹炒鱼片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>让莲藕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鸡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五花炆支竹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸猪肉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2018年9月10日-9月14日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">若有变动，以当天为准 </t>
+    <t>白粥</t>
+  </si>
+  <si>
+    <t>菜心肉片粥</t>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>鱼片粥</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>糕点</t>
+  </si>
+  <si>
+    <t>番薯</t>
+  </si>
+  <si>
+    <t>粽子</t>
+  </si>
+  <si>
+    <t>豆沙包</t>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+  </si>
+  <si>
+    <t>大椰丝</t>
+  </si>
+  <si>
+    <t>生肉包</t>
+  </si>
+  <si>
+    <t>发糕</t>
+  </si>
+  <si>
+    <t>陈村粉</t>
+  </si>
+  <si>
+    <t>汤粉面</t>
+  </si>
+  <si>
+    <t>河粉</t>
+  </si>
+  <si>
+    <t>炒粉</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>牛骨药材汤</t>
+  </si>
+  <si>
+    <t>玉米红萝卜龙骨汤</t>
+  </si>
+  <si>
+    <t>猪肺菜干汤</t>
+  </si>
+  <si>
+    <t>淮山红萝卜龙骨汤</t>
+  </si>
+  <si>
+    <t>例汤</t>
+  </si>
+  <si>
+    <t>金针云耳蒸鸡</t>
+  </si>
+  <si>
+    <t>酸菜拼叉烧</t>
+  </si>
+  <si>
+    <t>黄豆炆猪手</t>
+  </si>
+  <si>
+    <t>南瓜蒸排骨</t>
+  </si>
+  <si>
+    <t>紫苏蒸拿水鱼</t>
+  </si>
+  <si>
+    <t>莲藕炒肉片</t>
+  </si>
+  <si>
+    <t>西兰花炒牛肉</t>
+  </si>
+  <si>
+    <t>青瓜炒腊味</t>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+  </si>
+  <si>
+    <t>白切鸡</t>
+  </si>
+  <si>
+    <t>支竹炆鲩鱼</t>
+  </si>
+  <si>
+    <t>肉丝炒土豆丝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肉茸蒸水蛋 </t>
+  </si>
+  <si>
+    <t>豆角炒肉片</t>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+  </si>
+  <si>
+    <t>菜心</t>
+  </si>
+  <si>
+    <t>油麦菜</t>
+  </si>
+  <si>
+    <t>大白菜</t>
+  </si>
+  <si>
+    <t>椰菜</t>
+  </si>
+  <si>
+    <t>油菜</t>
+  </si>
+  <si>
+    <t>生菜</t>
+  </si>
+  <si>
+    <t>芥菜</t>
+  </si>
+  <si>
+    <t>白菜仔</t>
+  </si>
+  <si>
+    <t>生果</t>
+  </si>
+  <si>
+    <t>海带绿豆沙</t>
+  </si>
+  <si>
+    <t>支竹炆鸭</t>
+  </si>
+  <si>
+    <t>水晶鸡</t>
+  </si>
+  <si>
+    <t>肉片炒莲藕</t>
+  </si>
+  <si>
+    <t>韭菜炒蛋</t>
+  </si>
+  <si>
+    <t>啫啫鸡</t>
+  </si>
+  <si>
+    <t>节瓜炒猪肉</t>
+  </si>
+  <si>
+    <t>蒸鱼</t>
+  </si>
+  <si>
+    <t>时间：2018年9月17日-9月21日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -856,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1068,7 +988,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" s="19"/>
     </row>
@@ -1097,292 +1017,288 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -1405,7 +1321,7 @@
     <row r="23" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="F24" s="14"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -240,6 +240,10 @@
   <si>
     <t>时间：2018年9月17日-9月21日</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五花炆茄瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -776,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1261,7 +1265,9 @@
       <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>61</v>
       </c>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -76,173 +76,240 @@
     <t>菜心肉片粥</t>
   </si>
   <si>
+    <t>陈村粉</t>
+  </si>
+  <si>
+    <t>河粉</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>例汤</t>
+  </si>
+  <si>
+    <t>油菜</t>
+  </si>
+  <si>
+    <t>生果</t>
+  </si>
+  <si>
+    <t>时间：2018年10月8日-10月12日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药红萝卜龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇木耳蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜蓉粉丝大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生炆猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香辣椰菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆沙包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒米粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肺菜干汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">虾米蒸水蛋 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣子鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝蒸大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲩鱼生菜粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛骨药材汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色蒸鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉胶让莲藕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆花腩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>皮蛋瘦肉粥</t>
-  </si>
-  <si>
-    <t>鱼片粥</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>糕点</t>
-  </si>
-  <si>
-    <t>番薯</t>
-  </si>
-  <si>
-    <t>粽子</t>
-  </si>
-  <si>
-    <t>豆沙包</t>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大椰丝</t>
-  </si>
-  <si>
-    <t>生肉包</t>
-  </si>
-  <si>
-    <t>发糕</t>
-  </si>
-  <si>
-    <t>陈村粉</t>
-  </si>
-  <si>
-    <t>汤粉面</t>
-  </si>
-  <si>
-    <t>河粉</t>
-  </si>
-  <si>
-    <t>炒粉</t>
-  </si>
-  <si>
-    <t>粉</t>
-  </si>
-  <si>
-    <t>奶</t>
-  </si>
-  <si>
-    <t>牛骨药材汤</t>
-  </si>
-  <si>
-    <t>玉米红萝卜龙骨汤</t>
-  </si>
-  <si>
-    <t>猪肺菜干汤</t>
-  </si>
-  <si>
-    <t>淮山红萝卜龙骨汤</t>
-  </si>
-  <si>
-    <t>例汤</t>
-  </si>
-  <si>
-    <t>金针云耳蒸鸡</t>
-  </si>
-  <si>
-    <t>酸菜拼叉烧</t>
-  </si>
-  <si>
-    <t>黄豆炆猪手</t>
-  </si>
-  <si>
-    <t>南瓜蒸排骨</t>
-  </si>
-  <si>
-    <t>紫苏蒸拿水鱼</t>
-  </si>
-  <si>
-    <t>莲藕炒肉片</t>
-  </si>
-  <si>
-    <t>西兰花炒牛肉</t>
-  </si>
-  <si>
-    <t>青瓜炒腊味</t>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-  </si>
-  <si>
-    <t>白切鸡</t>
-  </si>
-  <si>
-    <t>支竹炆鲩鱼</t>
-  </si>
-  <si>
-    <t>肉丝炒土豆丝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肉茸蒸水蛋 </t>
-  </si>
-  <si>
-    <t>豆角炒肉片</t>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-  </si>
-  <si>
-    <t>菜心</t>
-  </si>
-  <si>
-    <t>油麦菜</t>
-  </si>
-  <si>
-    <t>大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛桃猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆角煎鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头菜蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>椰菜</t>
-  </si>
-  <si>
-    <t>油菜</t>
-  </si>
-  <si>
-    <t>生菜</t>
-  </si>
-  <si>
-    <t>芥菜</t>
-  </si>
-  <si>
-    <t>白菜仔</t>
-  </si>
-  <si>
-    <t>生果</t>
-  </si>
-  <si>
-    <t>海带绿豆沙</t>
-  </si>
-  <si>
-    <t>支竹炆鸭</t>
-  </si>
-  <si>
-    <t>水晶鸡</t>
-  </si>
-  <si>
-    <t>肉片炒莲藕</t>
-  </si>
-  <si>
-    <t>韭菜炒蛋</t>
-  </si>
-  <si>
-    <t>啫啫鸡</t>
-  </si>
-  <si>
-    <t>节瓜炒猪肉</t>
-  </si>
-  <si>
-    <t>蒸鱼</t>
-  </si>
-  <si>
-    <t>时间：2018年9月17日-9月21日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五花炆茄瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸咸水鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆丝炒肉丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芹炒香干</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -780,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -992,7 +1059,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B2" s="19"/>
     </row>
@@ -1027,10 +1094,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
@@ -1039,66 +1106,66 @@
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1108,137 +1175,137 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="4"/>
     </row>
@@ -1247,71 +1314,75 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="11"/>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -73,243 +73,231 @@
     <t>白粥</t>
   </si>
   <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>例汤</t>
+  </si>
+  <si>
+    <t>油菜</t>
+  </si>
+  <si>
+    <t>生果</t>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生炆猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆沙包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肺菜干汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝蒸大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大椰丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2018年10月15日-10月19日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈村粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒鱼球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆角炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜炒蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸五花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜仔蒸腊味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒盐靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉烧包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒米粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜炆牛腩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉茸蒸鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>菜心肉片粥</t>
-  </si>
-  <si>
-    <t>陈村粉</t>
-  </si>
-  <si>
-    <t>河粉</t>
-  </si>
-  <si>
-    <t>粉</t>
-  </si>
-  <si>
-    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材牛骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐干炒肉丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒盐鸡中翼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔水蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸甜鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节瓜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>例汤</t>
-  </si>
-  <si>
-    <t>油菜</t>
-  </si>
-  <si>
-    <t>生果</t>
-  </si>
-  <si>
-    <t>时间：2018年10月8日-10月12日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药红萝卜龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇木耳蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒜蓉粉丝大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生炆猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香辣椰菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆沙包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒米粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肺菜干汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">虾米蒸水蛋 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辣子鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉丝蒸大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲩鱼生菜粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛骨药材汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色蒸鲩鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉胶让莲藕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆花腩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大椰丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛桃猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆角煎鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头菜蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸咸水鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>土豆丝炒肉丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芹炒香干</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,6 +505,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -848,7 +842,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1048,20 +1042,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="19"/>
+      <c r="A2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1084,311 +1078,305 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="4" t="s">
+      <c r="F11" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="8"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A21" s="24"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -70,62 +70,187 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>白粥</t>
+    <t>例汤</t>
+  </si>
+  <si>
+    <t>油菜</t>
+  </si>
+  <si>
+    <t>生果</t>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生炆猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆沙包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜炆牛腩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材牛骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2018年10月22日-10月26日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈村粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜猪红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔水蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白果肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干猪肺汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉茸蒸水蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
   </si>
   <si>
     <t>例汤</t>
-  </si>
-  <si>
-    <t>油菜</t>
-  </si>
-  <si>
-    <t>生果</t>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生炆猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆沙包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肺菜干汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -133,171 +258,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>粉丝蒸大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大椰丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2018年10月15日-10月19日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈村粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒鱼球</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆角炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜炒蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸五花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜仔蒸腊味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>让三宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椒盐靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>叉烧包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒米粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜炆牛腩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉茸蒸鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材牛骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆腐干炒肉丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椒盐鸡中翼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔水蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸甜鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节瓜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
+    <t>生菜鱼片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面、奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豉油鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜丝肉丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒猪耳仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜丝肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜蒸排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜煎鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双椒炒牛肉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -841,8 +858,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1053,7 +1070,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1082,19 +1099,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1103,194 +1120,200 @@
         <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1306,64 +1329,64 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" s="11"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -127,22 +127,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>油条</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玉米红萝卜龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>糕点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -155,166 +143,167 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>萝卜炆牛腩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>菜心肉片粥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材牛骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>例汤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时间：2018年10月22日-10月26日</t>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈村粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜猪红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干猪肺汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉茸蒸水蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豉油鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜丝肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜蒸排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2018年10月29日-11月2日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈村粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色蒸靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉丝大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜猪红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔水蒸鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白果肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>米粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干猪肺汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉茸蒸水蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜鱼片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红枣馒头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白馒头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>面、奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豉油鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白萝卜丝肉丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青椒猪耳仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜丝肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜蒸排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜煎鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双椒炒牛肉</t>
+    <t>萝卜丝炒肉丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节瓜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜葱焗靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛湿龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五花炆莲藕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝大白痴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪什粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛桃红萝卜龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇木耳蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜炒腊味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸水蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄瓜肉丝煲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粽子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰丝条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸拿水鱼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -858,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1070,7 +1059,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1099,179 +1088,177 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>21</v>
@@ -1283,16 +1270,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1335,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
@@ -1348,29 +1335,29 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="11"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -83,18 +83,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>西兰花炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>生菜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>花生炆猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>油菜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,10 +131,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>让三宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>菜心肉片粥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -159,18 +147,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>莲藕猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>奶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>韭菜猪红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>油炸蒸猪肉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,10 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>菜干猪肺汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>紫苏蒸猪手</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -203,107 +179,147 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>豉油鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜丝肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>南瓜蒸排骨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时间：2018年10月29日-11月2日</t>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜炒腊味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粽子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2018年11月5日-11月9日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>萝卜丝炒肉丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节瓜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜葱焗靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祛湿龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五花炆莲藕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉丝大白痴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪什粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛桃红萝卜龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇木耳蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜炒腊味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三色蒸水蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茄瓜肉丝煲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰丝条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸拿水鱼</t>
+    <t>山药龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇云耳蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆五花腩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋绿鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜拼叉烧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜煮腐竹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸咸蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面、奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肺菜干汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸炆鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大椰丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材牛骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜煎鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉丝茄瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔水蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干猪骨粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发糕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肠粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜仔蒸腊味</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1075,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1088,90 +1104,88 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1179,89 +1193,89 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -1270,16 +1284,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1291,13 +1305,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
@@ -1322,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
@@ -1332,42 +1346,42 @@
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>12</v>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>油条</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>陈村粉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -155,14 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>米粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>肉茸蒸水蛋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,147 +163,167 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>南瓜蒸排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>油麦菜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>薯仔炆鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜炒腊味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2018年11月5日-11月9日</t>
+    <t>莲藕炆猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸咸蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大椰丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材牛骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2018年11月12日-11月16日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>山药龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇云耳蒸鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆五花腩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆鲩鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋绿鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜拼叉烧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜煮腐竹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸咸蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>面、奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肺菜干汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸炆鲩鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大椰丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材牛骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜煎鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉丝茄瓜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔水蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干猪骨粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发糕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肠粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鲩鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜仔蒸腊味</t>
+    <t>香芋包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大薯炆猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔水蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白果肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜炆牛腩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜炒鱼球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜鱼片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜筒骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山薯炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜丝肉丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>什菇肉煲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双椒炒猪耳仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山薯瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆干炒肉丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜丝香茜粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山薯红萝卜龙骨汤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -863,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1075,7 +1079,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1104,37 +1108,37 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1146,81 +1150,83 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>73</v>
@@ -1229,16 +1235,16 @@
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>74</v>
@@ -1247,32 +1253,32 @@
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>19</v>
@@ -1284,16 +1290,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1311,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
@@ -1336,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
@@ -1346,32 +1352,32 @@
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F19" s="11"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -83,43 +83,191 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸咸蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白果肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜鱼片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2018年11月19日-11月23日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆腩肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>生菜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒米粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生炆猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白切鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯饼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈村粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒叉烧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜仔蒸腊味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜煮腐竹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>油菜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆沙包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
+    <t>萝卜丝肉丝粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣馒头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -127,111 +275,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>菜心肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈村粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉茸蒸水蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红枣馒头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸咸蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大椰丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材牛骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2018年11月12日-11月16日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色蒸靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>让三宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉丝大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大薯炆猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔水蒸鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白果肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜炆牛腩</t>
+    <t>菜干猪肺汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸猪手</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -239,91 +287,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>生菜鱼片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜筒骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山薯炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜丝肉丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>什菇肉煲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双椒炒猪耳仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山薯瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆干炒肉丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜丝香茜粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山薯红萝卜龙骨汤</t>
+    <t>大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏煎蒸鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉烧包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜饼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆角煎鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸水蛋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -867,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1108,37 +1108,37 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1147,13 +1147,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>70</v>
@@ -1162,19 +1162,19 @@
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -1182,16 +1182,14 @@
       <c r="A8" s="22"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1199,89 +1197,89 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -1290,16 +1288,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1311,13 +1309,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
@@ -1342,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
@@ -1352,45 +1350,45 @@
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>12</v>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -111,95 +111,151 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>蒸咸蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>生果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>莲藕猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>让三宝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>白果肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜鱼片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>生肉包</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>莲藕炆腩肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯饼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈村粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜煮腐竹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏煎蒸鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2018年11月26日-11月30日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜丝肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>奶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时间：2018年11月19日-11月23日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆腩肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒米粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山龙骨汤</t>
+    <t>山药龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金针云耳蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥兰炒鱼球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜猪红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛湿筒骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豉汁蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜拼叉烧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜蒸煮肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜炆牛腩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -207,123 +263,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色蒸靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白切鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯饼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈村粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒叉烧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜仔蒸腊味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜煮腐竹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅菜蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜丝肉丝粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红枣馒头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干猪肺汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜炒鱼球</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏煎蒸鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>叉烧包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜饼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鲩鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆角煎鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三色蒸水蛋</t>
+    <t>白果肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材毛桃牛骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">香芋蒸排骨 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻婆豆腐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粽子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>什菇肉丝煲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥兰炒牛肉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -867,8 +863,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1079,7 +1075,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1108,37 +1104,35 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1147,66 +1141,64 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>19</v>
@@ -1215,34 +1207,34 @@
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>73</v>
@@ -1251,16 +1243,16 @@
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>74</v>
@@ -1273,13 +1265,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -1288,16 +1280,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1315,7 +1307,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
@@ -1350,16 +1342,16 @@
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -1369,13 +1361,13 @@
         <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -1388,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>12</v>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -79,55 +79,171 @@
     <t>生果</t>
   </si>
   <si>
+    <t>菜心肉片粥</t>
+  </si>
+  <si>
+    <t>白果肉片粥</t>
+  </si>
+  <si>
+    <t>生菜鱼片粥</t>
+  </si>
+  <si>
+    <t>萝卜丝香茜粥</t>
+  </si>
+  <si>
+    <t>香芋包</t>
+  </si>
+  <si>
+    <t>糕点</t>
+  </si>
+  <si>
+    <t>红枣馒头</t>
+  </si>
+  <si>
+    <t>大椰丝</t>
+  </si>
+  <si>
+    <t>油条</t>
+  </si>
+  <si>
     <t>玉米</t>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+  </si>
+  <si>
+    <t>豆沙包</t>
+  </si>
+  <si>
+    <t>生肉包</t>
+  </si>
+  <si>
+    <t>河粉</t>
+  </si>
+  <si>
+    <t>陈村粉</t>
+  </si>
+  <si>
+    <t>番薯</t>
+  </si>
+  <si>
+    <t>炒粉</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>汤粉</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+  </si>
+  <si>
+    <t>山薯红萝卜龙骨汤</t>
+  </si>
+  <si>
+    <t>玉米红萝卜筒骨汤</t>
+  </si>
+  <si>
+    <t>药材牛骨汤</t>
+  </si>
+  <si>
+    <t>双色蒸靓鱼</t>
+  </si>
+  <si>
+    <t>萝卜炆牛腩</t>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+  </si>
+  <si>
+    <t>紫苏蒸鱼</t>
+  </si>
+  <si>
+    <t>肉茸蒸水蛋</t>
+  </si>
+  <si>
+    <t>豆干炒肉丝</t>
+  </si>
+  <si>
+    <t>水煮牛肉</t>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
+  </si>
+  <si>
+    <t>青瓜炒鱼球</t>
+  </si>
+  <si>
+    <t>萝卜丝肉丝</t>
+  </si>
+  <si>
+    <t>番茄鸡蛋</t>
+  </si>
+  <si>
+    <t>时菜炒肉片</t>
+  </si>
+  <si>
+    <t>粉丝大白菜</t>
+  </si>
+  <si>
+    <t>油麦菜</t>
+  </si>
+  <si>
+    <t>白菜仔</t>
+  </si>
+  <si>
+    <t>菜心</t>
+  </si>
+  <si>
+    <t>芥菜仔</t>
+  </si>
+  <si>
+    <t>生菜</t>
+  </si>
+  <si>
+    <t>莲藕炆猪肉</t>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
+  </si>
+  <si>
+    <t>什菇肉煲</t>
+  </si>
+  <si>
+    <t>隔水蒸鸡</t>
+  </si>
+  <si>
+    <t>蒸咸蛋</t>
+  </si>
+  <si>
+    <t>双椒炒猪耳仔</t>
+  </si>
+  <si>
+    <t>时间：2018年12月3日-12月7日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>油菜</t>
+    <t>番薯</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>菜心</t>
+    <t>什菇煲肉丝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>生果</t>
+    <t>花生炆腩肉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>菜心肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>让三宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆腩肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
+    <t>韭黄炒蛋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -135,191 +251,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯饼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈村粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜煮腐竹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏煎蒸鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鲩鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2018年11月26日-11月30日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜丝肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金针云耳蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥兰炒鱼球</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜猪红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祛湿筒骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豉汁蒸靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜拼叉烧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨菜蒸煮肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>米粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜炆牛腩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三色蒸鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生炆猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白果肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材毛桃牛骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">香芋蒸排骨 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻婆豆腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇蒸鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青椒炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>什菇肉丝煲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥兰炒牛肉</t>
+    <t>油炸蒸靓鱼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -502,9 +434,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -533,6 +462,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -863,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1075,7 +1007,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1103,509 +1035,515 @@
       <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>71</v>
+      <c r="B5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
+      <c r="B6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="5"/>
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
-      <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>19</v>
+      <c r="B9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>73</v>
+      <c r="B11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="9"/>
+      <c r="D12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="C15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="11"/>
+      <c r="B18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
-      <c r="B19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="11"/>
+      <c r="C19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="C20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="16"/>
+      <c r="B51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -79,179 +79,229 @@
     <t>生果</t>
   </si>
   <si>
-    <t>菜心肉片粥</t>
-  </si>
-  <si>
-    <t>白果肉片粥</t>
-  </si>
-  <si>
-    <t>生菜鱼片粥</t>
-  </si>
-  <si>
-    <t>萝卜丝香茜粥</t>
+    <t>河粉</t>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+  </si>
+  <si>
+    <t>时间：2018年12月10日-12月14日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪红粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>香芋包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜煮鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜猪红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧豆腐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣子鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂菇烩肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜炒蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药红萝卜龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜蒸排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜筒骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干猪肺汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鸡翼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥兰炒腊味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻婆豆腐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌醋鸡蛋猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣土豆丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒炒凤爪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干烧骨粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>糕点</t>
-  </si>
-  <si>
-    <t>红枣馒头</t>
-  </si>
-  <si>
-    <t>大椰丝</t>
-  </si>
-  <si>
-    <t>油条</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-  </si>
-  <si>
-    <t>豆沙包</t>
-  </si>
-  <si>
-    <t>生肉包</t>
-  </si>
-  <si>
-    <t>河粉</t>
-  </si>
-  <si>
-    <t>陈村粉</t>
-  </si>
-  <si>
-    <t>番薯</t>
-  </si>
-  <si>
-    <t>炒粉</t>
-  </si>
-  <si>
-    <t>奶</t>
-  </si>
-  <si>
-    <t>汤粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>粉</t>
-  </si>
-  <si>
-    <t>莲藕猪骨汤</t>
-  </si>
-  <si>
-    <t>山薯红萝卜龙骨汤</t>
-  </si>
-  <si>
-    <t>玉米红萝卜筒骨汤</t>
-  </si>
-  <si>
-    <t>药材牛骨汤</t>
-  </si>
-  <si>
-    <t>双色蒸靓鱼</t>
-  </si>
-  <si>
-    <t>萝卜炆牛腩</t>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-  </si>
-  <si>
-    <t>紫苏蒸鱼</t>
-  </si>
-  <si>
-    <t>肉茸蒸水蛋</t>
-  </si>
-  <si>
-    <t>豆干炒肉丝</t>
-  </si>
-  <si>
-    <t>水煮牛肉</t>
-  </si>
-  <si>
-    <t>西兰花炒肉片</t>
-  </si>
-  <si>
-    <t>青瓜炒鱼球</t>
-  </si>
-  <si>
-    <t>萝卜丝肉丝</t>
-  </si>
-  <si>
-    <t>番茄鸡蛋</t>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
-  </si>
-  <si>
-    <t>粉丝大白菜</t>
-  </si>
-  <si>
-    <t>油麦菜</t>
-  </si>
-  <si>
-    <t>白菜仔</t>
-  </si>
-  <si>
-    <t>菜心</t>
-  </si>
-  <si>
-    <t>芥菜仔</t>
-  </si>
-  <si>
-    <t>生菜</t>
-  </si>
-  <si>
-    <t>莲藕炆猪肉</t>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-  </si>
-  <si>
-    <t>什菇肉煲</t>
-  </si>
-  <si>
-    <t>隔水蒸鸡</t>
-  </si>
-  <si>
-    <t>蒸咸蛋</t>
-  </si>
-  <si>
-    <t>双椒炒猪耳仔</t>
-  </si>
-  <si>
-    <t>时间：2018年12月3日-12月7日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>什菇煲肉丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生炆腩肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭黄炒蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白切鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆腩肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒腊味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆鱼花生粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒肉片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +846,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1007,7 +1057,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1036,19 +1086,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1057,31 +1107,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>64</v>
@@ -1090,53 +1140,49 @@
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="B8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>33</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>11</v>
@@ -1145,71 +1191,71 @@
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="18" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="18" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="18" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>12</v>
@@ -1218,16 +1264,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>12</v>
@@ -1280,29 +1326,29 @@
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="18" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="18" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>61</v>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -82,227 +82,228 @@
     <t>河粉</t>
   </si>
   <si>
-    <t>莲藕猪骨汤</t>
-  </si>
-  <si>
-    <t>时间：2018年12月10日-12月14日</t>
+    <t>猪红粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜猪红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧豆腐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干猪肺汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣土豆丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干烧骨粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白切鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆鱼花生粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸水蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豉油皇鸡翼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双椒炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝瓜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛湿筒骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋乌醋猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜饼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂菇烩豆干</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西芹兰豆炒腊肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大椰丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲菜蒸牛展</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆角粒煎鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2018年12月17日-12月21日</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪红粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆浆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜煮鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜猪红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇蒸鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧豆腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辣子鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂菇烩肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜炒蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色馒头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药红萝卜龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜蒸排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜筒骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干猪肺汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸鸡翼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥兰炒腊味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻婆豆腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌醋鸡蛋猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色蒸靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸辣土豆丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辣椒炒凤爪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干烧骨粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白切鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆腩肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒腊味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆鱼花生粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青椒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -845,8 +846,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1057,7 +1058,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1086,55 +1087,55 @@
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1143,29 +1144,29 @@
         <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
-      <c r="B8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1173,16 +1174,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>11</v>
@@ -1191,71 +1192,71 @@
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="18" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="18" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>12</v>
@@ -1264,16 +1265,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>12</v>
@@ -1326,32 +1327,32 @@
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="18" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F19" s="10"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -82,228 +82,167 @@
     <t>河粉</t>
   </si>
   <si>
+    <t>时间：2018年12月24日-12月28日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>拆鱼花生粥</t>
+  </si>
+  <si>
     <t>猪红粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+  </si>
+  <si>
+    <t>菜干烧骨粥</t>
   </si>
   <si>
     <t>香芋包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色馒头</t>
+  </si>
+  <si>
+    <t>生肉包</t>
+  </si>
+  <si>
+    <t>蒸双包</t>
+  </si>
+  <si>
+    <t>油条</t>
+  </si>
+  <si>
+    <t>番薯</t>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>蒸番薯</t>
+  </si>
+  <si>
+    <t>糕点</t>
+  </si>
+  <si>
+    <t>炒粉</t>
+  </si>
+  <si>
+    <t>汤粉</t>
+  </si>
+  <si>
+    <t>炒面</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>豆浆</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+  </si>
+  <si>
+    <t>山药红萝卜龙骨汤</t>
+  </si>
+  <si>
+    <t>菜干猪肺汤</t>
+  </si>
+  <si>
+    <t>玉米红萝卜筒骨汤</t>
+  </si>
+  <si>
+    <t>酸菜煮鱼</t>
+  </si>
+  <si>
+    <t>酸菜拼叉烧</t>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+  </si>
+  <si>
+    <t>乌醋鸡蛋猪手</t>
+  </si>
+  <si>
+    <t>白切鸡</t>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+  </si>
+  <si>
+    <t>莲藕炆腩肉</t>
+  </si>
+  <si>
+    <t>双色蒸靓鱼</t>
   </si>
   <si>
     <t>韭菜猪红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花肉片</t>
+  </si>
+  <si>
+    <t>麻婆豆腐</t>
+  </si>
+  <si>
+    <t>酸辣土豆丝</t>
+  </si>
+  <si>
+    <t>时菜炒腊味</t>
   </si>
   <si>
     <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+  </si>
+  <si>
+    <t>芥菜</t>
+  </si>
+  <si>
+    <t>椰菜</t>
   </si>
   <si>
     <t>生菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+  </si>
+  <si>
+    <t>油麦菜</t>
+  </si>
+  <si>
+    <t>隔水蒸鸡</t>
+  </si>
+  <si>
+    <t>冬菇蒸鸡</t>
+  </si>
+  <si>
+    <t>水煮鱼</t>
+  </si>
+  <si>
+    <t>辣椒炒凤爪</t>
   </si>
   <si>
     <t>红烧豆腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色馒头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干猪肺汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸辣土豆丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干烧骨粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白切鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆鱼花生粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸水蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豉油皇鸡翼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双椒炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝瓜炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祛湿筒骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡蛋乌醋猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨菜蒸靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜饼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆浆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂菇烩豆干</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西芹兰豆炒腊肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大椰丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲菜蒸牛展</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆角粒煎鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2018年12月17日-12月21日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂菇烩肉片</t>
+  </si>
+  <si>
+    <t>韭菜炒蛋</t>
   </si>
 </sst>
 </file>
@@ -847,7 +786,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B4" sqref="B4:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1058,7 +997,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -1087,19 +1026,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1108,34 +1047,34 @@
         <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1144,29 +1083,29 @@
         <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="B8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1174,16 +1113,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>11</v>
@@ -1192,71 +1131,71 @@
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="18" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>12</v>
@@ -1265,16 +1204,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="18" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>12</v>
@@ -1327,32 +1266,32 @@
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="18" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="F19" s="10"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -79,170 +79,144 @@
     <t>生果</t>
   </si>
   <si>
+    <t>菜干烧骨粥</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+  </si>
+  <si>
+    <t>时间：2019年1月2日-1月4日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>河粉</t>
-  </si>
-  <si>
-    <t>时间：2018年12月24日-12月28日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-  </si>
-  <si>
-    <t>拆鱼花生粥</t>
-  </si>
-  <si>
-    <t>猪红粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸炆靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸三色蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯饼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材牛肉汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜煮猪红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双椒炒凤爪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>淮山肉片粥</t>
-  </si>
-  <si>
-    <t>菜干烧骨粥</t>
-  </si>
-  <si>
-    <t>香芋包</t>
-  </si>
-  <si>
-    <t>双色馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生肉包</t>
-  </si>
-  <si>
-    <t>蒸双包</t>
-  </si>
-  <si>
-    <t>油条</t>
-  </si>
-  <si>
-    <t>番薯</t>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>蒸番薯</t>
-  </si>
-  <si>
-    <t>糕点</t>
-  </si>
-  <si>
-    <t>炒粉</t>
-  </si>
-  <si>
-    <t>汤粉</t>
-  </si>
-  <si>
-    <t>炒面</t>
-  </si>
-  <si>
-    <t>粉</t>
-  </si>
-  <si>
-    <t>豆浆</t>
-  </si>
-  <si>
-    <t>奶</t>
-  </si>
-  <si>
-    <t>莲藕猪骨汤</t>
-  </si>
-  <si>
-    <t>山药红萝卜龙骨汤</t>
-  </si>
-  <si>
-    <t>菜干猪肺汤</t>
-  </si>
-  <si>
-    <t>玉米红萝卜筒骨汤</t>
-  </si>
-  <si>
-    <t>酸菜煮鱼</t>
-  </si>
-  <si>
-    <t>酸菜拼叉烧</t>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-  </si>
-  <si>
-    <t>乌醋鸡蛋猪手</t>
-  </si>
-  <si>
-    <t>白切鸡</t>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-  </si>
-  <si>
-    <t>莲藕炆腩肉</t>
-  </si>
-  <si>
-    <t>双色蒸靓鱼</t>
-  </si>
-  <si>
-    <t>韭菜猪红</t>
-  </si>
-  <si>
-    <t>西兰花肉片</t>
-  </si>
-  <si>
-    <t>麻婆豆腐</t>
-  </si>
-  <si>
-    <t>酸辣土豆丝</t>
-  </si>
-  <si>
-    <t>时菜炒腊味</t>
-  </si>
-  <si>
-    <t>菜心</t>
-  </si>
-  <si>
-    <t>西洋菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏煎蒸咸水鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豉油皇猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>芥菜</t>
-  </si>
-  <si>
-    <t>椰菜</t>
-  </si>
-  <si>
-    <t>生菜</t>
-  </si>
-  <si>
-    <t>白菜仔</t>
-  </si>
-  <si>
-    <t>油麦菜</t>
-  </si>
-  <si>
-    <t>隔水蒸鸡</t>
-  </si>
-  <si>
-    <t>冬菇蒸鸡</t>
-  </si>
-  <si>
-    <t>水煮鱼</t>
-  </si>
-  <si>
-    <t>辣椒炒凤爪</t>
-  </si>
-  <si>
-    <t>红烧豆腐</t>
-  </si>
-  <si>
-    <t>杂菇烩肉片</t>
-  </si>
-  <si>
-    <t>韭菜炒蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,6 +429,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -785,8 +765,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -986,20 +966,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="21"/>
+      <c r="A2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1022,211 +1002,165 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="18" t="s">
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="E14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F14" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="24"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1172,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1246,15 +1180,11 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
@@ -1264,45 +1194,33 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="A18" s="26"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="A19" s="26"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="A20" s="26"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +1230,7 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1320,7 +1238,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -70,152 +70,259 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>时间：2019年1月7日-1月11日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白切鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜猪红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>例汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪什粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋蒸猪什排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜炒蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆鱼粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药红萝卜筒骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥兰炒腊味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣土豆丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔水蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧豆腐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大椰丝 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材牛骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炒腩肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸三色蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸猪杂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西芹木耳炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粽子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豉辣椒圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生滚汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋炆猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生果</t>
-  </si>
-  <si>
-    <t>菜干烧骨粥</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>粉</t>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-  </si>
-  <si>
-    <t>时间：2019年1月2日-1月4日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸炆靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸三色蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯饼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材牛肉汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜煮猪红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双椒炒凤爪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>让三宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红枣馒头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏煎蒸咸水鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豉油皇猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +542,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -765,8 +875,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -966,20 +1076,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1002,177 +1112,217 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="25"/>
+      <c r="B8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="7"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="18" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1180,57 +1330,73 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" s="17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="18" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="18" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="D20" s="18" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1238,7 +1404,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -70,259 +70,235 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>时间：2019年1月7日-1月11日</t>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜猪红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥兰炒腊味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣土豆丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔水蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材牛骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2019年1月14日-1月18日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆浆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白切鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜猪红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸鱼蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪什粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色馒头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芋头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜猪骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋蒸猪什排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜炒蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆鱼粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药红萝卜筒骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥兰炒腊味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸辣土豆丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜仔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔水蒸鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧豆腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">大椰丝 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材牛骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鲩鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炒腩肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸三色蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸猪杂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西芹木耳炒肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆豉辣椒圈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生滚汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋炆猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
+    <t>山药龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜炆牛腩骨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣杞子蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸咸蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌醋鸡蛋猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪红粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜筒骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜拼叉烧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂菇烩肉片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆鱼花生粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头菜蒸牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸炆鱼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -875,8 +851,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1063,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B2" s="24"/>
     </row>
@@ -1116,209 +1092,215 @@
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="18" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="18" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="18" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25"/>
       <c r="B12" s="18" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25"/>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="18" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="18" t="s">
-        <v>74</v>
+      <c r="B15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1334,29 +1316,29 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="18" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>62</v>
@@ -1366,13 +1348,13 @@
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
       <c r="B19" s="18" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>63</v>
@@ -1382,16 +1364,16 @@
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F20" s="10"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>一周菜谱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -70,27 +70,211 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>时间：2019年1月21日-1月25日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕花生猪骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心炒鱼球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干烧骨粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜筒骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜丝肉丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜蒸猪肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>皮蛋瘦肉粥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>油条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆浆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕猪骨汤</t>
+    <t>番薯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆沙包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白馒头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛湿龙骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双椒炒牛肉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸咸蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生炆猪手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆鱼花生粥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材牛骨汤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色蒸靓鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉丝薯仔丝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -98,31 +282,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>韭菜猪红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸鱼蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
+    <t>芥菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -130,83 +298,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>炒粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥兰炒腊味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸辣土豆丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔水蒸鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材牛骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鲩鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白粥</t>
+    <t>粽子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豉辣椒圈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -214,91 +310,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时间：2019年1月14日-1月18日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药龙骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白萝卜炆牛腩骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红枣杞子蒸靓鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸咸蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌醋鸡蛋猪手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色蒸靓鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪红粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜筒骨汤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜拼叉烧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋炆鸭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂菇烩肉片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆鱼花生粥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头菜蒸牛肉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸炆鱼</t>
+    <t>隔水蒸靓鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸三色蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒猪肉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,6 +541,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -851,8 +874,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1052,20 +1075,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1088,223 +1111,229 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="F5" s="18" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="F8" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="E9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="26"/>
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="18" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="26"/>
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" s="18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1312,73 +1341,73 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1386,7 +1415,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>一周菜谱</t>
   </si>
@@ -58,202 +58,252 @@
     <t>白粥</t>
   </si>
   <si>
+    <t>中餐</t>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+  </si>
+  <si>
+    <t>油菜</t>
+  </si>
+  <si>
+    <t>生果</t>
+  </si>
+  <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>例汤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若有变动，以当天为准 </t>
+  </si>
+  <si>
+    <t>绿豆芽</t>
+  </si>
+  <si>
+    <t>时间：2019年2月18日-2月22日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕猪骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜炆牛骨腩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双椒炒猪耳仔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸三色蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大椰丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒米粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干猪肺汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄豆炆猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔丝炒肉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸排骨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干烧骨粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆沙包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜猪骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸靓鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色馒头</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>蒸双蛋</t>
-  </si>
-  <si>
-    <t>番薯</t>
-  </si>
-  <si>
-    <t>双色馒头</t>
-  </si>
-  <si>
-    <t>生肉包</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>豆沙包</t>
-  </si>
-  <si>
-    <t>粽子</t>
-  </si>
-  <si>
-    <t>豆浆</t>
-  </si>
-  <si>
-    <t>中餐</t>
-  </si>
-  <si>
-    <t>油炸蒸猪手</t>
-  </si>
-  <si>
-    <t>双色蒸靓鱼</t>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-  </si>
-  <si>
-    <t>青瓜炒鱼球</t>
-  </si>
-  <si>
-    <t>肉丝炒薯仔丝</t>
-  </si>
-  <si>
-    <t>冬菇蒸靓鸡</t>
-  </si>
-  <si>
-    <t>蒸三色蛋</t>
-  </si>
-  <si>
-    <t>让三宝</t>
-  </si>
-  <si>
-    <t>时菜炒猪肉</t>
-  </si>
-  <si>
-    <t>菜心</t>
-  </si>
-  <si>
-    <t>椰菜</t>
-  </si>
-  <si>
-    <t>油麦菜</t>
-  </si>
-  <si>
-    <t>油菜</t>
-  </si>
-  <si>
-    <t>西洋菜</t>
-  </si>
-  <si>
-    <t>芥菜</t>
-  </si>
-  <si>
-    <t>生菜</t>
-  </si>
-  <si>
-    <t>生果</t>
-  </si>
-  <si>
-    <t>晚餐</t>
-  </si>
-  <si>
-    <t>例汤</t>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-  </si>
-  <si>
-    <t>榨菜蒸猪肉</t>
-  </si>
-  <si>
-    <t>芥兰炒腊味</t>
-  </si>
-  <si>
-    <t xml:space="preserve">若有变动，以当天为准 </t>
-  </si>
-  <si>
-    <t>时间：2019年2月11日-2月15日</t>
-  </si>
-  <si>
-    <t>猪什粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛湿筒骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮牛肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻婆豆腐</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>春菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>萝卜元茜牛肉粥</t>
-  </si>
-  <si>
-    <t>菜干烧骨粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>油条</t>
-  </si>
-  <si>
-    <t>大椰丝</t>
-  </si>
-  <si>
-    <t>糕点</t>
-  </si>
-  <si>
-    <t>菠萝包</t>
-  </si>
-  <si>
-    <t>炒河粉</t>
-  </si>
-  <si>
-    <t>炒米粉</t>
-  </si>
-  <si>
-    <t>汤粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>猪肠粉</t>
-  </si>
-  <si>
-    <t>豆豉辣椒圈</t>
-  </si>
-  <si>
-    <t>炒面</t>
-  </si>
-  <si>
-    <t>伊利奶</t>
-  </si>
-  <si>
-    <t>玉米龙骨汤</t>
-  </si>
-  <si>
-    <t>莲藕筒骨汤</t>
-  </si>
-  <si>
-    <t>山药红萝卜猪骨汤</t>
-  </si>
-  <si>
-    <t>菜干猪肺汤</t>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-  </si>
-  <si>
-    <t>萝卜炆牛腩</t>
-  </si>
-  <si>
-    <t>莴笋炒牛肉</t>
-  </si>
-  <si>
-    <t>莲藕炆腩肉</t>
-  </si>
-  <si>
-    <t>姜葱炆靓鱼</t>
-  </si>
-  <si>
-    <t>香芹大蒜炒猪肉</t>
-  </si>
-  <si>
-    <t>白菜心</t>
-  </si>
-  <si>
-    <t>菠菜</t>
-  </si>
-  <si>
-    <t>花生炒猪手</t>
-  </si>
-  <si>
-    <t>啫啫鸡煲</t>
-  </si>
-  <si>
-    <t>蒸咸蛋水蛋</t>
-  </si>
-  <si>
-    <t>蒸鸡</t>
-  </si>
-  <si>
-    <t>双椒炒猪耳仔</t>
-  </si>
-  <si>
-    <t>绿豆芽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸拿水鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>头菜青椒炒肉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔水蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -545,7 +595,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,7 +630,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,7 +845,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1006,7 +1056,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B2" s="20"/>
     </row>
@@ -1038,216 +1088,212 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1260,67 +1306,67 @@
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -1343,7 +1389,7 @@
     <row r="23" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F24" s="14"/>
     </row>
@@ -1557,5 +1603,8 @@
   <pageMargins left="0.39305555555555599" right="0.39305555555555599" top="0.78680555555555598" bottom="0.59027777777777801" header="0" footer="0.31458333333333299"/>
   <pageSetup paperSize="8" scale="85" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
+  <webPublishItems count="1">
+    <webPublishItem id="14634" divId="一周菜单_14634" sourceType="printArea" destinationFile="C:\Users\Lenovo\Desktop\一周菜单.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>
--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>一周菜谱</t>
   </si>
@@ -61,40 +61,202 @@
     <t>中餐</t>
   </si>
   <si>
+    <t>油菜</t>
+  </si>
+  <si>
+    <t>生果</t>
+  </si>
+  <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>例汤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若有变动，以当天为准 </t>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肠粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2019年2月25日-3月1日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豉辣椒萝卜粒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药猪骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生炆猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔丝肉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>啫啫鸡煲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛湿筒骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鸡翼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>油菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜蒸排骨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米红萝卜龙骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白切鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西芹木耳炒肉片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>生果</t>
-  </si>
-  <si>
-    <t>晚餐</t>
-  </si>
-  <si>
-    <t>例汤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">若有变动，以当天为准 </t>
-  </si>
-  <si>
-    <t>绿豆芽</t>
-  </si>
-  <si>
-    <t>时间：2019年2月18日-2月22日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄豆炆猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆鱼花生粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大椰丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -102,83 +264,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>莲藕猪骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜炆牛骨腩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>双椒炒猪耳仔</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸三色蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大椰丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒米粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干猪肺汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄豆炆猪手</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨菜蒸靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>让三宝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸鱼蒸猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔丝炒肉丝</t>
+    <t>牛骨药材汤</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -186,11 +272,27 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>时菜猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿鸭</t>
+    <t>双椒炒牛肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸水蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芹大蒜炒猪耳仔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -198,111 +300,19 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆沙包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜猪骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇蒸靓鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色馒头</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>祛湿筒骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮牛肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻婆豆腐</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>春菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜元茜牛肉粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肠粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸拿水鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>头菜青椒炒肉丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔水蒸靓鱼</t>
+    <t>粽子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎蒸大头鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉片</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,6 +544,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -845,7 +856,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1056,9 +1067,13 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1088,83 +1103,85 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1172,128 +1189,128 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1306,19 +1323,19 @@
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -1328,13 +1345,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -1344,29 +1361,29 @@
         <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -1389,7 +1406,7 @@
     <row r="23" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="14"/>
     </row>
@@ -1593,18 +1610,19 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A16"/>
     <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39305555555555599" right="0.39305555555555599" top="0.78680555555555598" bottom="0.59027777777777801" header="0" footer="0.31458333333333299"/>
   <pageSetup paperSize="8" scale="85" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
-  <webPublishItems count="1">
+  <webPublishItems count="2">
     <webPublishItem id="14634" divId="一周菜单_14634" sourceType="printArea" destinationFile="C:\Users\Lenovo\Desktop\一周菜单.htm"/>
+    <webPublishItem id="13779" divId="一周菜单_13779" sourceType="printArea" destinationFile="C:\Users\Lenovo\Desktop\一周菜单.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>一周菜谱</t>
   </si>
@@ -76,22 +76,10 @@
     <t xml:space="preserve">若有变动，以当天为准 </t>
   </si>
   <si>
-    <t>生菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>生果</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>猪肠粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2019年2月25日-3月1日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>油条</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -100,42 +88,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>米粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆豉辣椒萝卜粒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药猪骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生炆猪手</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>特色蒸靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔丝肉丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白菜心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>咸鱼蒸猪肉</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>啫啫鸡煲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>油菜</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -152,46 +108,18 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>河粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>奶</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>祛湿筒骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅菜蒸猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>炸鸡翼</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>薯仔炆鸭</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>南瓜蒸排骨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>淮山肉片粥</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -204,54 +132,14 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米红萝卜龙骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白切鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西芹木耳炒肉片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>菠菜</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>生果</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>黄豆炆猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆鱼花生粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大椰丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>香芋包</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -264,10 +152,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>牛骨药材汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>蒸排骨</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -288,31 +172,135 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>香芹大蒜炒猪耳仔</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鲩鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干烧骨粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>冬菇蒸鸡</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>煎蒸大头鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
+    <t>辣椒萝卜粒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>眉豆鸡脚汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豉油鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白灼青瓜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色蒸水蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉片猪肺枸杞汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪什粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶树菇老鸡汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄豆炆猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白灼西芹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆腩肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆沙包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉瓜黄豆龙骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇炆靓鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸猪什</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炒肉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜花炒猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪红粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生麦包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫菜蛋花汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>春砂仁蒸排骨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜煮猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒牛肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2019年3月4日-3月8日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌鼠耳</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -529,9 +517,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -856,7 +844,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:F24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1066,10 +1054,10 @@
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
+      <c r="A2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -1096,215 +1084,215 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="4" t="s">
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>11</v>
@@ -1314,7 +1302,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1322,7 +1310,7 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1340,41 +1328,41 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
@@ -1388,7 +1376,7 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1396,7 +1384,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>一周菜谱</t>
   </si>
@@ -55,252 +55,249 @@
     <t>早餐</t>
   </si>
   <si>
+    <t>中餐</t>
+  </si>
+  <si>
+    <t>油菜</t>
+  </si>
+  <si>
+    <t>生果</t>
+  </si>
+  <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>例汤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若有变动，以当天为准 </t>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>番薯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸水蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>眉豆鸡脚汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白灼西芹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆腩肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆沙包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生麦包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>春砂仁蒸排骨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌鼠耳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2019年3月11日-3月15日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枸杞肉片汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豉油皇鸡翼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆五花</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜香骨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄豆凉瓜龙骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜拼叉烧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>支竹炆靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍青瓜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蒸鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰花炒肉片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干烧骨粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜花炒肉片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆干炒肉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪杂粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干猪肺汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白切鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉丝薯仔丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>木耳肉片炒西芹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>白粥</t>
-  </si>
-  <si>
-    <t>中餐</t>
-  </si>
-  <si>
-    <t>油菜</t>
-  </si>
-  <si>
-    <t>生果</t>
-  </si>
-  <si>
-    <t>晚餐</t>
-  </si>
-  <si>
-    <t>例汤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">若有变动，以当天为准 </t>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸鱼蒸猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸鸡翼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆浆</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸排骨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>双椒炒牛肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>三色蒸水蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇蒸鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>辣椒萝卜粒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>眉豆鸡脚汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨菜蒸靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豉油鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白灼青瓜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色蒸水蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉片猪肺枸杞汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪什粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶树菇老鸡汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄豆炆猪手</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白灼西芹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆腩肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆沙包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉瓜黄豆龙骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇炆靓鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸猪什</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炒肉丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜花炒猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪红粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生麦包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫菜蛋花汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>春砂仁蒸排骨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅菜煮猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒牛肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2019年3月4日-3月8日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉拌鼠耳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色馒头</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生滚汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲菜蒸牛展</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +841,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1055,7 +1052,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1088,217 +1085,215 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
-      <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1311,35 +1306,35 @@
     </row>
     <row r="17" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -1349,29 +1344,29 @@
         <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -1394,7 +1389,7 @@
     <row r="23" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="14"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>一周菜谱</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>淮山肉片粥</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -141,34 +137,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>眉豆鸡脚汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨菜蒸靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>菜心</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>油炸蒸猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白灼西芹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆腩肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆沙包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>玉米</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -177,18 +149,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>春砂仁蒸排骨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>凉拌鼠耳</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>时间：2019年3月11日-3月15日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>皮蛋瘦肉粥</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -197,94 +161,14 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>豉油皇鸡翼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆五花</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒜香骨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄豆凉瓜龙骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜拼叉烧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>支竹炆靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍青瓜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水蒸鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西兰花炒肉片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干烧骨粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜花炒肉片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆干炒肉丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪杂粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干猪肺汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>白切鸡</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>肉丝薯仔丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>生菜</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>绿鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>木耳肉片炒西芹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>白粥</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -293,11 +177,139 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>生滚汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲菜蒸牛展</t>
+    <t>时间：2019年3月18日-3月22日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒梅菜粒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕龙骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄豆炆猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜丝肉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒盐排骨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸芋梗拼叉烧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜蒸肉饼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪什粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉瓜黄豆筒骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜炆牛杂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔丝炒肉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣子鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑花猪骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金针冬菇蒸鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜炒鱼球</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌莲藕</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜炒叉烧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枸杞肉片粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜葱炆鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸猪什</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>干椒炒椰菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>葱花炒鸡蛋</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +852,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1052,7 +1064,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1085,85 +1097,87 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1172,89 +1186,89 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>9</v>
@@ -1263,16 +1277,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>9</v>
@@ -1287,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
@@ -1328,7 +1342,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>58</v>
@@ -1341,16 +1355,16 @@
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -1601,7 +1615,7 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39305555555555599" right="0.39305555555555599" top="0.78680555555555598" bottom="0.59027777777777801" header="0" footer="0.31458333333333299"/>
-  <pageSetup paperSize="8" scale="85" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <webPublishItems count="2">
     <webPublishItem id="14634" divId="一周菜单_14634" sourceType="printArea" destinationFile="C:\Users\Lenovo\Desktop\一周菜单.htm"/>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>一周菜谱</t>
   </si>
@@ -77,7 +77,179 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>油条</t>
+    <t>油菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸双蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2019年3月25日-3月29日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆沙包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豉梅菜辣椒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜肉片蛋花汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜双色蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜炆牛排腩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸豆角粒炒肉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜花炒叉烧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜牛肉元茜粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑花龙骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>春砂仁蒸排骨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白切鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鲩鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜干烧骨粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生麦包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大椰丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒米粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药猪骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生炆猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇金针蒸鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸水蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芹炒猪耳仔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -85,7 +257,39 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>咸鱼蒸猪肉</t>
+    <t>番薯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肺菜干汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜拼叉烧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜葱炆鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜蒸肉饼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜绿鸭</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -93,223 +297,27 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>番薯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>淮山肉片粥</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆浆</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>三色蒸水蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生麦包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉拌鼠耳</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>枸杞肉片汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白切鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>双色馒头</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>时间：2019年3月18日-3月22日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>青椒梅菜粒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕龙骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄豆炆猪手</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白萝卜丝肉丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>椒盐排骨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸芋梗拼叉烧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅菜蒸肉饼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鲩鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪什粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉瓜黄豆筒骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜炆牛杂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油炸蒸靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔丝炒肉丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>辣子鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>让三宝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑花猪骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>金针冬菇蒸鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜炒鱼球</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉拌莲藕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜炒叉烧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>枸杞肉片粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜葱炆鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸猪什</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>干椒炒椰菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>葱花炒鸡蛋</t>
+    <t>粽子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肠粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸猪杂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉片</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -852,8 +860,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1064,7 +1072,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1097,87 +1105,87 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1186,89 +1194,89 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>9</v>
@@ -1277,16 +1285,16 @@
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>9</v>
@@ -1301,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
@@ -1339,39 +1347,39 @@
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1380,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F20" s="11"/>
     </row>

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>一周菜谱</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>奶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>蒸双蛋</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -93,15 +89,175 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>生菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生麦包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肺菜干汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜拼叉烧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜葱炆鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜蒸肉饼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜绿鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肠粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2019年4月1日-4月4日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枸杞肉片汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊利奶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山筒骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生炆猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒牛肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芹青椒炒叉烧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸水蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕龙骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇蒸靓鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋扣肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸五花腩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>啫啫鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>豆浆</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>玉米</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
+    <t>油炸紫苏蒸猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆光鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜蒸肉饼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>苋菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油麦菜</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -109,215 +265,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>让三宝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>例汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2019年3月25日-3月29日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆沙包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>河粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆豉梅菜辣椒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜肉片蛋花汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨菜双色蒸靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜炆牛排腩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸豆角粒炒肉丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸鱼蒸猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜花炒叉烧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜牛肉元茜粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑花龙骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>春砂仁蒸排骨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白切鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鲩鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜干烧骨粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生麦包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大椰丝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒米粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药猪骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生炆猪手</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇金针蒸鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>三色蒸水蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芹炒猪耳仔</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>番薯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肺菜干汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜拼叉烧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜葱炆鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅菜蒸肉饼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕炆猪肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜绿鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>双色馒头</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肠粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苏蒸猪杂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒肉片</t>
+    <t>香芋包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸豆角粒肉粒</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +813,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1072,7 +1024,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1105,87 +1057,79 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1194,111 +1138,99 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
@@ -1309,14 +1241,12 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
@@ -1339,41 +1269,35 @@
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1385,11 +1309,9 @@
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">

--- a/一周菜单.xlsx
+++ b/一周菜单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>一周菜谱</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>蒸双蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>生果</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -93,183 +89,242 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>椰菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>糕点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肺菜干汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜拼叉烧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜绿鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枸杞肉片汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒牛肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西洋菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄煮鸡蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮山肉片粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜蒸肉饼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：2019年4月8日-4月12日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豉辣椒圈</t>
+  </si>
+  <si>
+    <t>豆沙包、生肉包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肠粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇炆鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌木耳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>让三宝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生麦包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒米粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药红萝卜龙骨汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸蒸靓鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄豆炆猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾米粉丝蒸水蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣子鸡煲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>荞子炒猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪什粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕炆猪手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>例汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼蒸猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色蒸水蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大椰丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>河粉</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>花生麦包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮蛋瘦肉粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>糕点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肺菜干汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜拼叉烧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜葱炆鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅菜蒸肉饼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>芥菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>青瓜绿鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肠粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间：2019年4月1日-4月4日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>枸杞肉片汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠萝包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊利奶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山筒骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨菜蒸靓鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生炆猪手</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时菜炒牛肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西洋菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芹青椒炒叉烧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>三色蒸水蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>米粉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲藕龙骨汤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬菇蒸靓鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋扣肉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄煮鸡蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸鱼蒸五花腩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>啫啫鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮山肉片粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>豆浆</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>油炸紫苏蒸猪手</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯仔炆光鸭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅菜蒸肉饼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>苋菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>油麦菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白粥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>香芋包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸豆角粒肉粒</t>
+    <t>冬瓜肉片双蛋汤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>春砂仁蒸排骨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸豆角炒肉粒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯仔炆鸭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜牛肉粥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色馒头</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏蒸拿水鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮牛肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时菜炒肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +868,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1024,7 +1079,7 @@
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1057,79 +1112,85 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1138,99 +1199,111 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
@@ -1241,12 +1314,14 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
@@ -1269,35 +1344,41 @@
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1309,9 +1390,11 @@
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
